--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3035,7 +3035,9 @@
       <c r="W25" s="2">
         <v>95</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" s="2">
+        <v>95</v>
+      </c>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2800,13 +2800,21 @@
       <c r="R22" s="2">
         <v>100</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="S22" s="2">
+        <v>95</v>
+      </c>
+      <c r="T22" s="2">
+        <v>85</v>
+      </c>
       <c r="U22" s="2">
         <v>80</v>
       </c>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="V22" s="2">
+        <v>95</v>
+      </c>
+      <c r="W22" s="2">
+        <v>95</v>
+      </c>
       <c r="X22" s="2">
         <v>90</v>
       </c>

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA55" sqref="AA55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5029,7 +5029,9 @@
       <c r="Q52" s="2">
         <v>85</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="R52" s="2">
+        <v>100</v>
+      </c>
       <c r="S52" s="2">
         <v>70</v>
       </c>

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA55" sqref="AA55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3632,14 +3632,18 @@
         <v>90</v>
       </c>
       <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="U33" s="2">
+        <v>100</v>
+      </c>
       <c r="V33" s="2">
         <v>90</v>
       </c>
       <c r="W33" s="2">
         <v>100</v>
       </c>
-      <c r="X33" s="2"/>
+      <c r="X33" s="2">
+        <v>95</v>
+      </c>
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -956,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +979,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1342,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB58" sqref="AB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1356,92 +1359,98 @@
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="13" width="6.125" customWidth="1"/>
     <col min="14" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="24" width="6.875" customWidth="1"/>
+    <col min="23" max="26" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
       <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
       <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1514,11 +1523,17 @@
       <c r="X4" s="1">
         <v>20</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>141150048</v>
       </c>
@@ -1551,9 +1566,11 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>151130087</v>
       </c>
@@ -1626,9 +1643,13 @@
       <c r="X6" s="2">
         <v>100</v>
       </c>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>161015015</v>
       </c>
@@ -1701,9 +1722,13 @@
       <c r="X7" s="2">
         <v>95</v>
       </c>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>161180120</v>
       </c>
@@ -1768,9 +1793,11 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>171098518</v>
       </c>
@@ -1843,9 +1870,13 @@
       <c r="X9" s="2">
         <v>95</v>
       </c>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>171830607</v>
       </c>
@@ -1918,9 +1949,13 @@
       <c r="X10" s="2">
         <v>95</v>
       </c>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>171850034</v>
       </c>
@@ -1993,9 +2028,13 @@
       <c r="X11" s="2">
         <v>90</v>
       </c>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>171860002</v>
       </c>
@@ -2068,9 +2107,13 @@
       <c r="X12" s="2">
         <v>100</v>
       </c>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>171860029</v>
       </c>
@@ -2143,9 +2186,13 @@
       <c r="X13" s="2">
         <v>100</v>
       </c>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>171860030</v>
       </c>
@@ -2218,9 +2265,13 @@
       <c r="X14" s="2">
         <v>95</v>
       </c>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>171860031</v>
       </c>
@@ -2293,9 +2344,13 @@
       <c r="X15" s="2">
         <v>95</v>
       </c>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>171860514</v>
       </c>
@@ -2368,9 +2423,13 @@
       <c r="X16" s="2">
         <v>100</v>
       </c>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>171860515</v>
       </c>
@@ -2443,9 +2502,11 @@
       <c r="X17" s="2">
         <v>90</v>
       </c>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>171860516</v>
       </c>
@@ -2518,9 +2579,13 @@
       <c r="X18" s="2">
         <v>100</v>
       </c>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>171860519</v>
       </c>
@@ -2593,9 +2658,13 @@
       <c r="X19" s="2">
         <v>90</v>
       </c>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>171860521</v>
       </c>
@@ -2668,9 +2737,13 @@
       <c r="X20" s="2">
         <v>95</v>
       </c>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>171860522</v>
       </c>
@@ -2743,9 +2816,13 @@
       <c r="X21" s="2">
         <v>90</v>
       </c>
-      <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>171860523</v>
       </c>
@@ -2818,9 +2895,13 @@
       <c r="X22" s="2">
         <v>90</v>
       </c>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171860524</v>
       </c>
@@ -2893,9 +2974,13 @@
       <c r="X23" s="2">
         <v>85</v>
       </c>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>171860526</v>
       </c>
@@ -2968,12 +3053,16 @@
       <c r="X24" s="2">
         <v>95</v>
       </c>
-      <c r="Y24" s="3"/>
-      <c r="AC24" t="s">
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3"/>
+      <c r="AE24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>171860528</v>
       </c>
@@ -3046,9 +3135,11 @@
       <c r="X25" s="2">
         <v>95</v>
       </c>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>171860530</v>
       </c>
@@ -3121,9 +3212,13 @@
       <c r="X26" s="2">
         <v>100</v>
       </c>
-      <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>171860541</v>
       </c>
@@ -3196,9 +3291,13 @@
       <c r="X27" s="2">
         <v>95</v>
       </c>
-      <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>171860542</v>
       </c>
@@ -3271,9 +3370,13 @@
       <c r="X28" s="2">
         <v>95</v>
       </c>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>171860545</v>
       </c>
@@ -3346,9 +3449,13 @@
       <c r="X29" s="2">
         <v>100</v>
       </c>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>171860546</v>
       </c>
@@ -3421,9 +3528,13 @@
       <c r="X30" s="2">
         <v>90</v>
       </c>
-      <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>171860547</v>
       </c>
@@ -3496,9 +3607,13 @@
       <c r="X31" s="2">
         <v>95</v>
       </c>
-      <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>171860557</v>
       </c>
@@ -3571,9 +3686,13 @@
       <c r="X32" s="2">
         <v>85</v>
       </c>
-      <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>171860560</v>
       </c>
@@ -3644,9 +3763,11 @@
       <c r="X33" s="2">
         <v>95</v>
       </c>
-      <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>171860562</v>
       </c>
@@ -3719,9 +3840,13 @@
       <c r="X34" s="2">
         <v>90</v>
       </c>
-      <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>171860563</v>
       </c>
@@ -3794,9 +3919,13 @@
       <c r="X35" s="2">
         <v>85</v>
       </c>
-      <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>171860574</v>
       </c>
@@ -3869,9 +3998,13 @@
       <c r="X36" s="2">
         <v>95</v>
       </c>
-      <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>171860578</v>
       </c>
@@ -3944,9 +4077,13 @@
       <c r="X37" s="2">
         <v>95</v>
       </c>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>171860579</v>
       </c>
@@ -4019,9 +4156,13 @@
       <c r="X38" s="2">
         <v>90</v>
       </c>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>171860583</v>
       </c>
@@ -4094,9 +4235,13 @@
       <c r="X39" s="2">
         <v>90</v>
       </c>
-      <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>171860589</v>
       </c>
@@ -4163,9 +4308,11 @@
       <c r="X40" s="2">
         <v>80</v>
       </c>
-      <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>171860598</v>
       </c>
@@ -4238,9 +4385,13 @@
       <c r="X41" s="2">
         <v>90</v>
       </c>
-      <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>171860606</v>
       </c>
@@ -4313,9 +4464,13 @@
       <c r="X42" s="2">
         <v>90</v>
       </c>
-      <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>171860608</v>
       </c>
@@ -4376,9 +4531,11 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-      <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>171860610</v>
       </c>
@@ -4451,9 +4608,13 @@
       <c r="X44" s="2">
         <v>100</v>
       </c>
-      <c r="Y44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>171860612</v>
       </c>
@@ -4526,9 +4687,13 @@
       <c r="X45" s="2">
         <v>95</v>
       </c>
-      <c r="Y45" s="3"/>
-    </row>
-    <row r="46" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>171860613</v>
       </c>
@@ -4601,9 +4766,13 @@
       <c r="X46" s="2">
         <v>90</v>
       </c>
-      <c r="Y46" s="3"/>
-    </row>
-    <row r="47" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>171860616</v>
       </c>
@@ -4676,9 +4845,13 @@
       <c r="X47" s="2">
         <v>90</v>
       </c>
-      <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>171860617</v>
       </c>
@@ -4751,9 +4924,13 @@
       <c r="X48" s="2">
         <v>90</v>
       </c>
-      <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>171860618</v>
       </c>
@@ -4826,9 +5003,13 @@
       <c r="X49" s="2">
         <v>95</v>
       </c>
-      <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>171860621</v>
       </c>
@@ -4901,12 +5082,16 @@
       <c r="X50" s="2">
         <v>95</v>
       </c>
-      <c r="Y50" s="3"/>
-      <c r="Z50" t="s">
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA50" s="3"/>
+      <c r="AB50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>171860622</v>
       </c>
@@ -4979,9 +5164,13 @@
       <c r="X51" s="2">
         <v>95</v>
       </c>
-      <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>171860630</v>
       </c>
@@ -5054,9 +5243,13 @@
       <c r="X52" s="2">
         <v>90</v>
       </c>
-      <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>171860633</v>
       </c>
@@ -5129,9 +5322,13 @@
       <c r="X53" s="2">
         <v>95</v>
       </c>
-      <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>171860634</v>
       </c>
@@ -5204,9 +5401,13 @@
       <c r="X54" s="2">
         <v>95</v>
       </c>
-      <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>171860636</v>
       </c>
@@ -5279,9 +5480,13 @@
       <c r="X55" s="2">
         <v>100</v>
       </c>
-      <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>171860655</v>
       </c>
@@ -5354,9 +5559,13 @@
       <c r="X56" s="2">
         <v>90</v>
       </c>
-      <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>171860656</v>
       </c>
@@ -5425,9 +5634,11 @@
       <c r="X57" s="2">
         <v>100</v>
       </c>
-      <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>171860669</v>
       </c>
@@ -5500,9 +5711,13 @@
       <c r="X58" s="2">
         <v>90</v>
       </c>
-      <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>171860681</v>
       </c>
@@ -5575,9 +5790,13 @@
       <c r="X59" s="2">
         <v>90</v>
       </c>
-      <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>171860682</v>
       </c>
@@ -5650,9 +5869,13 @@
       <c r="X60" s="2">
         <v>95</v>
       </c>
-      <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>171860683</v>
       </c>
@@ -5725,9 +5948,13 @@
       <c r="X61" s="2">
         <v>95</v>
       </c>
-      <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA61" s="3"/>
+    </row>
+    <row r="62" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>171860684</v>
       </c>
@@ -5800,9 +6027,13 @@
       <c r="X62" s="2">
         <v>90</v>
       </c>
-      <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2">
+        <v>95</v>
+      </c>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>171860686</v>
       </c>
@@ -5875,9 +6106,13 @@
       <c r="X63" s="2">
         <v>95</v>
       </c>
-      <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA63" s="3"/>
+    </row>
+    <row r="64" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>171870020</v>
       </c>
@@ -5940,7 +6175,11 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-      <c r="Y64" s="3"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:AE64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB58" sqref="AB58"/>
+      <selection activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1783,16 +1783,24 @@
       <c r="R8" s="2">
         <v>95</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
       <c r="T8" s="2">
         <v>80</v>
       </c>
       <c r="U8" s="2">
         <v>80</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="3"/>
@@ -3136,7 +3144,9 @@
         <v>95</v>
       </c>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="2">
+        <v>90</v>
+      </c>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,7 +3760,9 @@
       <c r="S33" s="2">
         <v>90</v>
       </c>
-      <c r="T33" s="2"/>
+      <c r="T33" s="6">
+        <v>0</v>
+      </c>
       <c r="U33" s="2">
         <v>100</v>
       </c>
@@ -4293,12 +4305,18 @@
       <c r="Q40" s="6">
         <v>0</v>
       </c>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
+      <c r="R40" s="6">
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
+      </c>
       <c r="T40" s="2">
         <v>85</v>
       </c>
-      <c r="U40" s="2"/>
+      <c r="U40" s="6">
+        <v>0</v>
+      </c>
       <c r="V40" s="2">
         <v>100</v>
       </c>
@@ -4525,12 +4543,24 @@
       <c r="R43" s="2">
         <v>95</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+      <c r="T43" s="6">
+        <v>0</v>
+      </c>
+      <c r="U43" s="6">
+        <v>0</v>
+      </c>
+      <c r="V43" s="6">
+        <v>0</v>
+      </c>
+      <c r="W43" s="6">
+        <v>0</v>
+      </c>
+      <c r="X43" s="6">
+        <v>0</v>
+      </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="3"/>
@@ -5620,8 +5650,12 @@
       <c r="R57" s="2">
         <v>90</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
+      <c r="S57" s="6">
+        <v>0</v>
+      </c>
+      <c r="T57" s="6">
+        <v>0</v>
+      </c>
       <c r="U57" s="2">
         <v>95</v>
       </c>
@@ -6164,17 +6198,27 @@
       <c r="Q64" s="2">
         <v>70</v>
       </c>
-      <c r="R64" s="2"/>
+      <c r="R64" s="6">
+        <v>0</v>
+      </c>
       <c r="S64" s="2">
         <v>75</v>
       </c>
       <c r="T64" s="2">
         <v>95</v>
       </c>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
+      <c r="U64" s="6">
+        <v>0</v>
+      </c>
+      <c r="V64" s="6">
+        <v>0</v>
+      </c>
+      <c r="W64" s="6">
+        <v>0</v>
+      </c>
+      <c r="X64" s="6">
+        <v>0</v>
+      </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2">
         <v>85</v>

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -956,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +979,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1348,7 +1351,7 @@
   <dimension ref="A1:AE64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T77" sqref="T77"/>
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1363,89 +1366,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="8"/>
+      <c r="Y1" s="9"/>
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
@@ -1643,7 +1646,9 @@
       <c r="X6" s="2">
         <v>100</v>
       </c>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>90</v>
+      </c>
       <c r="Z6" s="2">
         <v>90</v>
       </c>
@@ -1722,7 +1727,9 @@
       <c r="X7" s="2">
         <v>95</v>
       </c>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>95</v>
+      </c>
       <c r="Z7" s="2">
         <v>90</v>
       </c>
@@ -1878,7 +1885,9 @@
       <c r="X9" s="2">
         <v>95</v>
       </c>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>85</v>
+      </c>
       <c r="Z9" s="2">
         <v>90</v>
       </c>
@@ -1957,7 +1966,9 @@
       <c r="X10" s="2">
         <v>95</v>
       </c>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>90</v>
+      </c>
       <c r="Z10" s="2">
         <v>95</v>
       </c>
@@ -2036,7 +2047,9 @@
       <c r="X11" s="2">
         <v>90</v>
       </c>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>100</v>
+      </c>
       <c r="Z11" s="2">
         <v>95</v>
       </c>
@@ -2115,7 +2128,9 @@
       <c r="X12" s="2">
         <v>100</v>
       </c>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>100</v>
+      </c>
       <c r="Z12" s="2">
         <v>100</v>
       </c>
@@ -2194,7 +2209,9 @@
       <c r="X13" s="2">
         <v>100</v>
       </c>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>100</v>
+      </c>
       <c r="Z13" s="2">
         <v>100</v>
       </c>
@@ -2273,7 +2290,9 @@
       <c r="X14" s="2">
         <v>95</v>
       </c>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>100</v>
+      </c>
       <c r="Z14" s="2">
         <v>85</v>
       </c>
@@ -2352,7 +2371,9 @@
       <c r="X15" s="2">
         <v>95</v>
       </c>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>95</v>
+      </c>
       <c r="Z15" s="2">
         <v>90</v>
       </c>
@@ -2431,7 +2452,9 @@
       <c r="X16" s="2">
         <v>100</v>
       </c>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>95</v>
+      </c>
       <c r="Z16" s="2">
         <v>90</v>
       </c>
@@ -2587,7 +2610,9 @@
       <c r="X18" s="2">
         <v>100</v>
       </c>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>90</v>
+      </c>
       <c r="Z18" s="2">
         <v>100</v>
       </c>
@@ -2666,7 +2691,9 @@
       <c r="X19" s="2">
         <v>90</v>
       </c>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>100</v>
+      </c>
       <c r="Z19" s="2">
         <v>95</v>
       </c>
@@ -2745,7 +2772,9 @@
       <c r="X20" s="2">
         <v>95</v>
       </c>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>95</v>
+      </c>
       <c r="Z20" s="2">
         <v>100</v>
       </c>
@@ -2824,7 +2853,9 @@
       <c r="X21" s="2">
         <v>90</v>
       </c>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>80</v>
+      </c>
       <c r="Z21" s="2">
         <v>85</v>
       </c>
@@ -2903,7 +2934,9 @@
       <c r="X22" s="2">
         <v>90</v>
       </c>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>95</v>
+      </c>
       <c r="Z22" s="2">
         <v>100</v>
       </c>
@@ -2982,7 +3015,9 @@
       <c r="X23" s="2">
         <v>85</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2">
+        <v>80</v>
+      </c>
       <c r="Z23" s="2">
         <v>100</v>
       </c>
@@ -3061,7 +3096,9 @@
       <c r="X24" s="2">
         <v>95</v>
       </c>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>95</v>
+      </c>
       <c r="Z24" s="2">
         <v>100</v>
       </c>
@@ -3143,7 +3180,9 @@
       <c r="X25" s="2">
         <v>95</v>
       </c>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>100</v>
+      </c>
       <c r="Z25" s="2">
         <v>90</v>
       </c>
@@ -3222,7 +3261,9 @@
       <c r="X26" s="2">
         <v>100</v>
       </c>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>100</v>
+      </c>
       <c r="Z26" s="2">
         <v>95</v>
       </c>
@@ -3301,7 +3342,9 @@
       <c r="X27" s="2">
         <v>95</v>
       </c>
-      <c r="Y27" s="2"/>
+      <c r="Y27" s="2">
+        <v>90</v>
+      </c>
       <c r="Z27" s="2">
         <v>95</v>
       </c>
@@ -3380,7 +3423,9 @@
       <c r="X28" s="2">
         <v>95</v>
       </c>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="2">
+        <v>90</v>
+      </c>
       <c r="Z28" s="2">
         <v>90</v>
       </c>
@@ -3459,7 +3504,9 @@
       <c r="X29" s="2">
         <v>100</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>100</v>
+      </c>
       <c r="Z29" s="2">
         <v>90</v>
       </c>
@@ -3538,7 +3585,9 @@
       <c r="X30" s="2">
         <v>90</v>
       </c>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="2">
+        <v>90</v>
+      </c>
       <c r="Z30" s="2">
         <v>85</v>
       </c>
@@ -3617,7 +3666,9 @@
       <c r="X31" s="2">
         <v>95</v>
       </c>
-      <c r="Y31" s="2"/>
+      <c r="Y31" s="2">
+        <v>90</v>
+      </c>
       <c r="Z31" s="2">
         <v>95</v>
       </c>
@@ -3696,7 +3747,9 @@
       <c r="X32" s="2">
         <v>85</v>
       </c>
-      <c r="Y32" s="2"/>
+      <c r="Y32" s="2">
+        <v>85</v>
+      </c>
       <c r="Z32" s="2">
         <v>95</v>
       </c>
@@ -3775,7 +3828,9 @@
       <c r="X33" s="2">
         <v>95</v>
       </c>
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="2">
+        <v>90</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="3"/>
     </row>
@@ -3852,7 +3907,9 @@
       <c r="X34" s="2">
         <v>90</v>
       </c>
-      <c r="Y34" s="2"/>
+      <c r="Y34" s="2">
+        <v>90</v>
+      </c>
       <c r="Z34" s="2">
         <v>100</v>
       </c>
@@ -3931,7 +3988,9 @@
       <c r="X35" s="2">
         <v>85</v>
       </c>
-      <c r="Y35" s="2"/>
+      <c r="Y35" s="2">
+        <v>90</v>
+      </c>
       <c r="Z35" s="2">
         <v>95</v>
       </c>
@@ -4010,7 +4069,9 @@
       <c r="X36" s="2">
         <v>95</v>
       </c>
-      <c r="Y36" s="2"/>
+      <c r="Y36" s="2">
+        <v>100</v>
+      </c>
       <c r="Z36" s="2">
         <v>95</v>
       </c>
@@ -4089,7 +4150,9 @@
       <c r="X37" s="2">
         <v>95</v>
       </c>
-      <c r="Y37" s="2"/>
+      <c r="Y37" s="2">
+        <v>95</v>
+      </c>
       <c r="Z37" s="2">
         <v>95</v>
       </c>
@@ -4168,7 +4231,9 @@
       <c r="X38" s="2">
         <v>90</v>
       </c>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="2">
+        <v>95</v>
+      </c>
       <c r="Z38" s="2">
         <v>100</v>
       </c>
@@ -4247,7 +4312,9 @@
       <c r="X39" s="2">
         <v>90</v>
       </c>
-      <c r="Y39" s="2"/>
+      <c r="Y39" s="2">
+        <v>100</v>
+      </c>
       <c r="Z39" s="2">
         <v>95</v>
       </c>
@@ -4326,7 +4393,9 @@
       <c r="X40" s="2">
         <v>80</v>
       </c>
-      <c r="Y40" s="2"/>
+      <c r="Y40" s="2">
+        <v>95</v>
+      </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="3"/>
     </row>
@@ -4403,7 +4472,9 @@
       <c r="X41" s="2">
         <v>90</v>
       </c>
-      <c r="Y41" s="2"/>
+      <c r="Y41" s="2">
+        <v>95</v>
+      </c>
       <c r="Z41" s="2">
         <v>90</v>
       </c>
@@ -4482,7 +4553,9 @@
       <c r="X42" s="2">
         <v>90</v>
       </c>
-      <c r="Y42" s="2"/>
+      <c r="Y42" s="2">
+        <v>90</v>
+      </c>
       <c r="Z42" s="2">
         <v>85</v>
       </c>
@@ -4638,7 +4711,9 @@
       <c r="X44" s="2">
         <v>100</v>
       </c>
-      <c r="Y44" s="2"/>
+      <c r="Y44" s="2">
+        <v>100</v>
+      </c>
       <c r="Z44" s="2">
         <v>100</v>
       </c>
@@ -4717,7 +4792,9 @@
       <c r="X45" s="2">
         <v>95</v>
       </c>
-      <c r="Y45" s="2"/>
+      <c r="Y45" s="2">
+        <v>95</v>
+      </c>
       <c r="Z45" s="2">
         <v>90</v>
       </c>
@@ -4796,7 +4873,9 @@
       <c r="X46" s="2">
         <v>90</v>
       </c>
-      <c r="Y46" s="2"/>
+      <c r="Y46" s="2">
+        <v>100</v>
+      </c>
       <c r="Z46" s="2">
         <v>100</v>
       </c>
@@ -4875,7 +4954,9 @@
       <c r="X47" s="2">
         <v>90</v>
       </c>
-      <c r="Y47" s="2"/>
+      <c r="Y47" s="2">
+        <v>95</v>
+      </c>
       <c r="Z47" s="2">
         <v>95</v>
       </c>
@@ -4954,7 +5035,9 @@
       <c r="X48" s="2">
         <v>90</v>
       </c>
-      <c r="Y48" s="2"/>
+      <c r="Y48" s="2">
+        <v>100</v>
+      </c>
       <c r="Z48" s="2">
         <v>95</v>
       </c>
@@ -5033,7 +5116,9 @@
       <c r="X49" s="2">
         <v>95</v>
       </c>
-      <c r="Y49" s="2"/>
+      <c r="Y49" s="2">
+        <v>100</v>
+      </c>
       <c r="Z49" s="2">
         <v>90</v>
       </c>
@@ -5112,7 +5197,9 @@
       <c r="X50" s="2">
         <v>95</v>
       </c>
-      <c r="Y50" s="2"/>
+      <c r="Y50" s="2">
+        <v>95</v>
+      </c>
       <c r="Z50" s="2">
         <v>100</v>
       </c>
@@ -5194,7 +5281,9 @@
       <c r="X51" s="2">
         <v>95</v>
       </c>
-      <c r="Y51" s="2"/>
+      <c r="Y51" s="2">
+        <v>90</v>
+      </c>
       <c r="Z51" s="2">
         <v>95</v>
       </c>
@@ -5273,7 +5362,9 @@
       <c r="X52" s="2">
         <v>90</v>
       </c>
-      <c r="Y52" s="2"/>
+      <c r="Y52" s="2">
+        <v>100</v>
+      </c>
       <c r="Z52" s="2">
         <v>90</v>
       </c>
@@ -5352,7 +5443,9 @@
       <c r="X53" s="2">
         <v>95</v>
       </c>
-      <c r="Y53" s="2"/>
+      <c r="Y53" s="2">
+        <v>95</v>
+      </c>
       <c r="Z53" s="2">
         <v>95</v>
       </c>
@@ -5431,7 +5524,9 @@
       <c r="X54" s="2">
         <v>95</v>
       </c>
-      <c r="Y54" s="2"/>
+      <c r="Y54" s="2">
+        <v>100</v>
+      </c>
       <c r="Z54" s="2">
         <v>100</v>
       </c>
@@ -5510,7 +5605,9 @@
       <c r="X55" s="2">
         <v>100</v>
       </c>
-      <c r="Y55" s="2"/>
+      <c r="Y55" s="2">
+        <v>95</v>
+      </c>
       <c r="Z55" s="2">
         <v>100</v>
       </c>
@@ -5589,7 +5686,9 @@
       <c r="X56" s="2">
         <v>90</v>
       </c>
-      <c r="Y56" s="2"/>
+      <c r="Y56" s="2">
+        <v>95</v>
+      </c>
       <c r="Z56" s="2">
         <v>90</v>
       </c>
@@ -5668,7 +5767,9 @@
       <c r="X57" s="2">
         <v>100</v>
       </c>
-      <c r="Y57" s="2"/>
+      <c r="Y57" s="2">
+        <v>100</v>
+      </c>
       <c r="Z57" s="2"/>
       <c r="AA57" s="3"/>
     </row>
@@ -5745,7 +5846,9 @@
       <c r="X58" s="2">
         <v>90</v>
       </c>
-      <c r="Y58" s="2"/>
+      <c r="Y58" s="2">
+        <v>90</v>
+      </c>
       <c r="Z58" s="2">
         <v>100</v>
       </c>
@@ -5824,7 +5927,9 @@
       <c r="X59" s="2">
         <v>90</v>
       </c>
-      <c r="Y59" s="2"/>
+      <c r="Y59" s="2">
+        <v>95</v>
+      </c>
       <c r="Z59" s="2">
         <v>100</v>
       </c>
@@ -5903,7 +6008,9 @@
       <c r="X60" s="2">
         <v>95</v>
       </c>
-      <c r="Y60" s="2"/>
+      <c r="Y60" s="2">
+        <v>100</v>
+      </c>
       <c r="Z60" s="2">
         <v>95</v>
       </c>
@@ -5982,7 +6089,9 @@
       <c r="X61" s="2">
         <v>95</v>
       </c>
-      <c r="Y61" s="2"/>
+      <c r="Y61" s="2">
+        <v>95</v>
+      </c>
       <c r="Z61" s="2">
         <v>95</v>
       </c>
@@ -6061,7 +6170,9 @@
       <c r="X62" s="2">
         <v>90</v>
       </c>
-      <c r="Y62" s="2"/>
+      <c r="Y62" s="2">
+        <v>90</v>
+      </c>
       <c r="Z62" s="2">
         <v>95</v>
       </c>
@@ -6140,7 +6251,9 @@
       <c r="X63" s="2">
         <v>95</v>
       </c>
-      <c r="Y63" s="2"/>
+      <c r="Y63" s="2">
+        <v>95</v>
+      </c>
       <c r="Z63" s="2">
         <v>100</v>
       </c>
@@ -6207,8 +6320,8 @@
       <c r="T64" s="2">
         <v>95</v>
       </c>
-      <c r="U64" s="6">
-        <v>0</v>
+      <c r="U64" s="7">
+        <v>90</v>
       </c>
       <c r="V64" s="6">
         <v>0</v>
@@ -6219,7 +6332,9 @@
       <c r="X64" s="6">
         <v>0</v>
       </c>
-      <c r="Y64" s="2"/>
+      <c r="Y64" s="2">
+        <v>90</v>
+      </c>
       <c r="Z64" s="2">
         <v>85</v>
       </c>

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -956,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +979,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1348,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC55" sqref="AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1362,98 +1365,104 @@
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="13" width="6.125" customWidth="1"/>
     <col min="14" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="26" width="6.875" customWidth="1"/>
+    <col min="23" max="28" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="8"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
     </row>
-    <row r="3" spans="1:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:29" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1532,11 +1541,17 @@
       <c r="Z4" s="1">
         <v>22</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>141150048</v>
       </c>
@@ -1571,9 +1586,11 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>151130087</v>
       </c>
@@ -1652,9 +1669,15 @@
       <c r="Z6" s="2">
         <v>90</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>161015015</v>
       </c>
@@ -1733,9 +1756,15 @@
       <c r="Z7" s="2">
         <v>90</v>
       </c>
-      <c r="AA7" s="3"/>
+      <c r="AA7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>161180120</v>
       </c>
@@ -1810,9 +1839,11 @@
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>171098518</v>
       </c>
@@ -1891,9 +1922,15 @@
       <c r="Z9" s="2">
         <v>90</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>171830607</v>
       </c>
@@ -1972,9 +2009,15 @@
       <c r="Z10" s="2">
         <v>95</v>
       </c>
-      <c r="AA10" s="3"/>
+      <c r="AA10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>171850034</v>
       </c>
@@ -2053,9 +2096,15 @@
       <c r="Z11" s="2">
         <v>95</v>
       </c>
-      <c r="AA11" s="3"/>
+      <c r="AA11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>171860002</v>
       </c>
@@ -2134,9 +2183,15 @@
       <c r="Z12" s="2">
         <v>100</v>
       </c>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>171860029</v>
       </c>
@@ -2215,9 +2270,15 @@
       <c r="Z13" s="2">
         <v>100</v>
       </c>
-      <c r="AA13" s="3"/>
+      <c r="AA13" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>171860030</v>
       </c>
@@ -2296,9 +2357,15 @@
       <c r="Z14" s="2">
         <v>85</v>
       </c>
-      <c r="AA14" s="3"/>
+      <c r="AA14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>171860031</v>
       </c>
@@ -2377,9 +2444,15 @@
       <c r="Z15" s="2">
         <v>90</v>
       </c>
-      <c r="AA15" s="3"/>
+      <c r="AA15" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>171860514</v>
       </c>
@@ -2458,9 +2531,15 @@
       <c r="Z16" s="2">
         <v>90</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>171860515</v>
       </c>
@@ -2535,9 +2614,11 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>171860516</v>
       </c>
@@ -2616,9 +2697,15 @@
       <c r="Z18" s="2">
         <v>100</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>171860519</v>
       </c>
@@ -2697,9 +2784,15 @@
       <c r="Z19" s="2">
         <v>95</v>
       </c>
-      <c r="AA19" s="3"/>
+      <c r="AA19" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>171860521</v>
       </c>
@@ -2778,9 +2871,15 @@
       <c r="Z20" s="2">
         <v>100</v>
       </c>
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>171860522</v>
       </c>
@@ -2859,9 +2958,15 @@
       <c r="Z21" s="2">
         <v>85</v>
       </c>
-      <c r="AA21" s="3"/>
+      <c r="AA21" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>171860523</v>
       </c>
@@ -2940,9 +3045,15 @@
       <c r="Z22" s="2">
         <v>100</v>
       </c>
-      <c r="AA22" s="3"/>
+      <c r="AA22" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171860524</v>
       </c>
@@ -3021,9 +3132,15 @@
       <c r="Z23" s="2">
         <v>100</v>
       </c>
-      <c r="AA23" s="3"/>
+      <c r="AA23" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>171860526</v>
       </c>
@@ -3102,12 +3219,18 @@
       <c r="Z24" s="2">
         <v>100</v>
       </c>
-      <c r="AA24" s="3"/>
-      <c r="AE24" t="s">
+      <c r="AA24" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AG24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>171860528</v>
       </c>
@@ -3186,9 +3309,15 @@
       <c r="Z25" s="2">
         <v>90</v>
       </c>
-      <c r="AA25" s="3"/>
+      <c r="AA25" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>171860530</v>
       </c>
@@ -3267,9 +3396,15 @@
       <c r="Z26" s="2">
         <v>95</v>
       </c>
-      <c r="AA26" s="3"/>
+      <c r="AA26" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>171860541</v>
       </c>
@@ -3348,9 +3483,15 @@
       <c r="Z27" s="2">
         <v>95</v>
       </c>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>171860542</v>
       </c>
@@ -3429,9 +3570,15 @@
       <c r="Z28" s="2">
         <v>90</v>
       </c>
-      <c r="AA28" s="3"/>
+      <c r="AA28" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>171860545</v>
       </c>
@@ -3510,9 +3657,15 @@
       <c r="Z29" s="2">
         <v>90</v>
       </c>
-      <c r="AA29" s="3"/>
+      <c r="AA29" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>171860546</v>
       </c>
@@ -3591,9 +3744,15 @@
       <c r="Z30" s="2">
         <v>85</v>
       </c>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>171860547</v>
       </c>
@@ -3672,9 +3831,15 @@
       <c r="Z31" s="2">
         <v>95</v>
       </c>
-      <c r="AA31" s="3"/>
+      <c r="AA31" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>171860557</v>
       </c>
@@ -3753,9 +3918,15 @@
       <c r="Z32" s="2">
         <v>95</v>
       </c>
-      <c r="AA32" s="3"/>
+      <c r="AA32" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>171860560</v>
       </c>
@@ -3832,9 +4003,11 @@
         <v>90</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="3"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>171860562</v>
       </c>
@@ -3913,9 +4086,15 @@
       <c r="Z34" s="2">
         <v>100</v>
       </c>
-      <c r="AA34" s="3"/>
+      <c r="AA34" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>171860563</v>
       </c>
@@ -3994,9 +4173,15 @@
       <c r="Z35" s="2">
         <v>95</v>
       </c>
-      <c r="AA35" s="3"/>
+      <c r="AA35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>171860574</v>
       </c>
@@ -4075,9 +4260,15 @@
       <c r="Z36" s="2">
         <v>95</v>
       </c>
-      <c r="AA36" s="3"/>
+      <c r="AA36" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>171860578</v>
       </c>
@@ -4156,9 +4347,15 @@
       <c r="Z37" s="2">
         <v>95</v>
       </c>
-      <c r="AA37" s="3"/>
+      <c r="AA37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>171860579</v>
       </c>
@@ -4237,9 +4434,15 @@
       <c r="Z38" s="2">
         <v>100</v>
       </c>
-      <c r="AA38" s="3"/>
+      <c r="AA38" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>171860583</v>
       </c>
@@ -4318,9 +4521,15 @@
       <c r="Z39" s="2">
         <v>95</v>
       </c>
-      <c r="AA39" s="3"/>
+      <c r="AA39" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>171860589</v>
       </c>
@@ -4397,9 +4606,11 @@
         <v>95</v>
       </c>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="3"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>171860598</v>
       </c>
@@ -4478,9 +4689,15 @@
       <c r="Z41" s="2">
         <v>90</v>
       </c>
-      <c r="AA41" s="3"/>
+      <c r="AA41" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>171860606</v>
       </c>
@@ -4559,9 +4776,15 @@
       <c r="Z42" s="2">
         <v>85</v>
       </c>
-      <c r="AA42" s="3"/>
+      <c r="AA42" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>171860608</v>
       </c>
@@ -4636,9 +4859,11 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="3"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>171860610</v>
       </c>
@@ -4717,9 +4942,15 @@
       <c r="Z44" s="2">
         <v>100</v>
       </c>
-      <c r="AA44" s="3"/>
+      <c r="AA44" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>171860612</v>
       </c>
@@ -4798,9 +5029,15 @@
       <c r="Z45" s="2">
         <v>90</v>
       </c>
-      <c r="AA45" s="3"/>
+      <c r="AA45" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>171860613</v>
       </c>
@@ -4879,9 +5116,15 @@
       <c r="Z46" s="2">
         <v>100</v>
       </c>
-      <c r="AA46" s="3"/>
+      <c r="AA46" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>171860616</v>
       </c>
@@ -4960,9 +5203,15 @@
       <c r="Z47" s="2">
         <v>95</v>
       </c>
-      <c r="AA47" s="3"/>
+      <c r="AA47" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:27" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>171860617</v>
       </c>
@@ -5041,9 +5290,15 @@
       <c r="Z48" s="2">
         <v>95</v>
       </c>
-      <c r="AA48" s="3"/>
+      <c r="AA48" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>171860618</v>
       </c>
@@ -5122,9 +5377,15 @@
       <c r="Z49" s="2">
         <v>90</v>
       </c>
-      <c r="AA49" s="3"/>
+      <c r="AA49" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>171860621</v>
       </c>
@@ -5203,12 +5464,18 @@
       <c r="Z50" s="2">
         <v>100</v>
       </c>
-      <c r="AA50" s="3"/>
-      <c r="AB50" t="s">
+      <c r="AA50" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC50" s="3"/>
+      <c r="AD50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>171860622</v>
       </c>
@@ -5287,9 +5554,15 @@
       <c r="Z51" s="2">
         <v>95</v>
       </c>
-      <c r="AA51" s="3"/>
+      <c r="AA51" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>171860630</v>
       </c>
@@ -5368,9 +5641,15 @@
       <c r="Z52" s="2">
         <v>90</v>
       </c>
-      <c r="AA52" s="3"/>
+      <c r="AA52" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>171860633</v>
       </c>
@@ -5449,9 +5728,15 @@
       <c r="Z53" s="2">
         <v>95</v>
       </c>
-      <c r="AA53" s="3"/>
+      <c r="AA53" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>171860634</v>
       </c>
@@ -5530,9 +5815,15 @@
       <c r="Z54" s="2">
         <v>100</v>
       </c>
-      <c r="AA54" s="3"/>
+      <c r="AA54" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>171860636</v>
       </c>
@@ -5611,9 +5902,15 @@
       <c r="Z55" s="2">
         <v>100</v>
       </c>
-      <c r="AA55" s="3"/>
+      <c r="AA55" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>171860655</v>
       </c>
@@ -5692,9 +5989,11 @@
       <c r="Z56" s="2">
         <v>90</v>
       </c>
-      <c r="AA56" s="3"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>171860656</v>
       </c>
@@ -5771,9 +6070,11 @@
         <v>100</v>
       </c>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="3"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>171860669</v>
       </c>
@@ -5852,9 +6153,15 @@
       <c r="Z58" s="2">
         <v>100</v>
       </c>
-      <c r="AA58" s="3"/>
+      <c r="AA58" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>171860681</v>
       </c>
@@ -5933,9 +6240,15 @@
       <c r="Z59" s="2">
         <v>100</v>
       </c>
-      <c r="AA59" s="3"/>
+      <c r="AA59" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>171860682</v>
       </c>
@@ -6014,9 +6327,13 @@
       <c r="Z60" s="2">
         <v>95</v>
       </c>
-      <c r="AA60" s="3"/>
+      <c r="AA60" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>171860683</v>
       </c>
@@ -6095,9 +6412,15 @@
       <c r="Z61" s="2">
         <v>95</v>
       </c>
-      <c r="AA61" s="3"/>
+      <c r="AA61" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>171860684</v>
       </c>
@@ -6176,9 +6499,15 @@
       <c r="Z62" s="2">
         <v>95</v>
       </c>
-      <c r="AA62" s="3"/>
+      <c r="AA62" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>171860686</v>
       </c>
@@ -6257,9 +6586,15 @@
       <c r="Z63" s="2">
         <v>100</v>
       </c>
-      <c r="AA63" s="3"/>
+      <c r="AA63" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>171870020</v>
       </c>
@@ -6338,7 +6673,11 @@
       <c r="Z64" s="2">
         <v>85</v>
       </c>
-      <c r="AA64" s="3"/>
+      <c r="AA64" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC55" sqref="AC55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB66" sqref="AB66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6330,7 +6330,9 @@
       <c r="AA60" s="2">
         <v>100</v>
       </c>
-      <c r="AB60" s="2"/>
+      <c r="AB60" s="2">
+        <v>100</v>
+      </c>
       <c r="AC60" s="3"/>
     </row>
     <row r="61" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:AG64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB66" sqref="AB66"/>
+      <selection activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5989,8 +5989,12 @@
       <c r="Z56" s="2">
         <v>90</v>
       </c>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
+      <c r="AA56" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>90</v>
+      </c>
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
   <si>
     <t>南京大学  《离散数学》  课程学生名单</t>
   </si>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -956,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +983,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1351,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG64"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC59" sqref="AC59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1365,104 +1372,107 @@
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="13" width="6.125" customWidth="1"/>
     <col min="14" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="28" width="6.875" customWidth="1"/>
+    <col min="23" max="29" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
+      <c r="AC1" s="11"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+    <row r="2" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
+      <c r="AC2" s="11"/>
     </row>
-    <row r="3" spans="1:29" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
     </row>
-    <row r="4" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1547,11 +1557,14 @@
       <c r="AB4" s="1">
         <v>24</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>141150048</v>
       </c>
@@ -1588,9 +1601,10 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="3"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>151130087</v>
       </c>
@@ -1675,9 +1689,12 @@
       <c r="AB6" s="2">
         <v>90</v>
       </c>
-      <c r="AC6" s="3"/>
+      <c r="AC6" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>161015015</v>
       </c>
@@ -1762,9 +1779,10 @@
       <c r="AB7" s="2">
         <v>85</v>
       </c>
-      <c r="AC7" s="3"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>161180120</v>
       </c>
@@ -1841,9 +1859,10 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="3"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>171098518</v>
       </c>
@@ -1928,9 +1947,12 @@
       <c r="AB9" s="2">
         <v>85</v>
       </c>
-      <c r="AC9" s="3"/>
+      <c r="AC9" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>171830607</v>
       </c>
@@ -2015,9 +2037,12 @@
       <c r="AB10" s="2">
         <v>100</v>
       </c>
-      <c r="AC10" s="3"/>
+      <c r="AC10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>171850034</v>
       </c>
@@ -2102,9 +2127,12 @@
       <c r="AB11" s="2">
         <v>90</v>
       </c>
-      <c r="AC11" s="3"/>
+      <c r="AC11" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>171860002</v>
       </c>
@@ -2189,9 +2217,12 @@
       <c r="AB12" s="2">
         <v>95</v>
       </c>
-      <c r="AC12" s="3"/>
+      <c r="AC12" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>171860029</v>
       </c>
@@ -2276,9 +2307,12 @@
       <c r="AB13" s="2">
         <v>100</v>
       </c>
-      <c r="AC13" s="3"/>
+      <c r="AC13" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>171860030</v>
       </c>
@@ -2363,9 +2397,12 @@
       <c r="AB14" s="2">
         <v>95</v>
       </c>
-      <c r="AC14" s="3"/>
+      <c r="AC14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>171860031</v>
       </c>
@@ -2450,9 +2487,12 @@
       <c r="AB15" s="2">
         <v>90</v>
       </c>
-      <c r="AC15" s="3"/>
+      <c r="AC15" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>171860514</v>
       </c>
@@ -2537,9 +2577,12 @@
       <c r="AB16" s="2">
         <v>90</v>
       </c>
-      <c r="AC16" s="3"/>
+      <c r="AC16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>171860515</v>
       </c>
@@ -2616,9 +2659,10 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="3"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>171860516</v>
       </c>
@@ -2703,9 +2747,12 @@
       <c r="AB18" s="2">
         <v>95</v>
       </c>
-      <c r="AC18" s="3"/>
+      <c r="AC18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>171860519</v>
       </c>
@@ -2790,9 +2837,14 @@
       <c r="AB19" s="2">
         <v>90</v>
       </c>
-      <c r="AC19" s="3"/>
+      <c r="AC19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>171860521</v>
       </c>
@@ -2877,9 +2929,12 @@
       <c r="AB20" s="2">
         <v>95</v>
       </c>
-      <c r="AC20" s="3"/>
+      <c r="AC20" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>171860522</v>
       </c>
@@ -2964,9 +3019,12 @@
       <c r="AB21" s="2">
         <v>75</v>
       </c>
-      <c r="AC21" s="3"/>
+      <c r="AC21" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>171860523</v>
       </c>
@@ -3051,9 +3109,12 @@
       <c r="AB22" s="2">
         <v>85</v>
       </c>
-      <c r="AC22" s="3"/>
+      <c r="AC22" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171860524</v>
       </c>
@@ -3138,9 +3199,12 @@
       <c r="AB23" s="2">
         <v>100</v>
       </c>
-      <c r="AC23" s="3"/>
+      <c r="AC23" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>171860526</v>
       </c>
@@ -3225,12 +3289,15 @@
       <c r="AB24" s="2">
         <v>90</v>
       </c>
-      <c r="AC24" s="3"/>
-      <c r="AG24" t="s">
+      <c r="AC24" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="3"/>
+      <c r="AH24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>171860528</v>
       </c>
@@ -3315,9 +3382,10 @@
       <c r="AB25" s="2">
         <v>85</v>
       </c>
-      <c r="AC25" s="3"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="3"/>
     </row>
-    <row r="26" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>171860530</v>
       </c>
@@ -3402,9 +3470,10 @@
       <c r="AB26" s="2">
         <v>90</v>
       </c>
-      <c r="AC26" s="3"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>171860541</v>
       </c>
@@ -3489,9 +3558,12 @@
       <c r="AB27" s="2">
         <v>90</v>
       </c>
-      <c r="AC27" s="3"/>
+      <c r="AC27" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>171860542</v>
       </c>
@@ -3576,9 +3648,12 @@
       <c r="AB28" s="2">
         <v>95</v>
       </c>
-      <c r="AC28" s="3"/>
+      <c r="AC28" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>171860545</v>
       </c>
@@ -3663,9 +3738,12 @@
       <c r="AB29" s="2">
         <v>95</v>
       </c>
-      <c r="AC29" s="3"/>
+      <c r="AC29" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>171860546</v>
       </c>
@@ -3750,9 +3828,12 @@
       <c r="AB30" s="2">
         <v>85</v>
       </c>
-      <c r="AC30" s="3"/>
+      <c r="AC30" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>171860547</v>
       </c>
@@ -3837,9 +3918,12 @@
       <c r="AB31" s="2">
         <v>90</v>
       </c>
-      <c r="AC31" s="3"/>
+      <c r="AC31" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>171860557</v>
       </c>
@@ -3924,9 +4008,12 @@
       <c r="AB32" s="2">
         <v>80</v>
       </c>
-      <c r="AC32" s="3"/>
+      <c r="AC32" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>171860560</v>
       </c>
@@ -4005,9 +4092,10 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="3"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>171860562</v>
       </c>
@@ -4092,9 +4180,12 @@
       <c r="AB34" s="2">
         <v>85</v>
       </c>
-      <c r="AC34" s="3"/>
+      <c r="AC34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>171860563</v>
       </c>
@@ -4179,9 +4270,12 @@
       <c r="AB35" s="2">
         <v>95</v>
       </c>
-      <c r="AC35" s="3"/>
+      <c r="AC35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>171860574</v>
       </c>
@@ -4266,9 +4360,12 @@
       <c r="AB36" s="2">
         <v>85</v>
       </c>
-      <c r="AC36" s="3"/>
+      <c r="AC36" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>171860578</v>
       </c>
@@ -4353,9 +4450,12 @@
       <c r="AB37" s="2">
         <v>100</v>
       </c>
-      <c r="AC37" s="3"/>
+      <c r="AC37" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>171860579</v>
       </c>
@@ -4440,9 +4540,12 @@
       <c r="AB38" s="2">
         <v>95</v>
       </c>
-      <c r="AC38" s="3"/>
+      <c r="AC38" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>171860583</v>
       </c>
@@ -4527,9 +4630,12 @@
       <c r="AB39" s="2">
         <v>95</v>
       </c>
-      <c r="AC39" s="3"/>
+      <c r="AC39" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD39" s="3"/>
     </row>
-    <row r="40" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>171860589</v>
       </c>
@@ -4608,9 +4714,10 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="3"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="3"/>
     </row>
-    <row r="41" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>171860598</v>
       </c>
@@ -4695,9 +4802,12 @@
       <c r="AB41" s="2">
         <v>95</v>
       </c>
-      <c r="AC41" s="3"/>
+      <c r="AC41" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD41" s="3"/>
     </row>
-    <row r="42" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>171860606</v>
       </c>
@@ -4782,9 +4892,10 @@
       <c r="AB42" s="2">
         <v>90</v>
       </c>
-      <c r="AC42" s="3"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>171860608</v>
       </c>
@@ -4861,9 +4972,10 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
-      <c r="AC43" s="3"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>171860610</v>
       </c>
@@ -4948,9 +5060,12 @@
       <c r="AB44" s="2">
         <v>95</v>
       </c>
-      <c r="AC44" s="3"/>
+      <c r="AC44" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>171860612</v>
       </c>
@@ -5035,9 +5150,12 @@
       <c r="AB45" s="2">
         <v>90</v>
       </c>
-      <c r="AC45" s="3"/>
+      <c r="AC45" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD45" s="3"/>
     </row>
-    <row r="46" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>171860613</v>
       </c>
@@ -5122,9 +5240,12 @@
       <c r="AB46" s="2">
         <v>100</v>
       </c>
-      <c r="AC46" s="3"/>
+      <c r="AC46" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD46" s="3"/>
     </row>
-    <row r="47" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>171860616</v>
       </c>
@@ -5209,9 +5330,12 @@
       <c r="AB47" s="2">
         <v>100</v>
       </c>
-      <c r="AC47" s="3"/>
+      <c r="AC47" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>171860617</v>
       </c>
@@ -5296,9 +5420,12 @@
       <c r="AB48" s="2">
         <v>85</v>
       </c>
-      <c r="AC48" s="3"/>
+      <c r="AC48" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD48" s="3"/>
     </row>
-    <row r="49" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>171860618</v>
       </c>
@@ -5383,9 +5510,12 @@
       <c r="AB49" s="2">
         <v>90</v>
       </c>
-      <c r="AC49" s="3"/>
+      <c r="AC49" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>171860621</v>
       </c>
@@ -5470,12 +5600,15 @@
       <c r="AB50" s="2">
         <v>95</v>
       </c>
-      <c r="AC50" s="3"/>
-      <c r="AD50" t="s">
+      <c r="AC50" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD50" s="3"/>
+      <c r="AE50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>171860622</v>
       </c>
@@ -5560,9 +5693,12 @@
       <c r="AB51" s="2">
         <v>100</v>
       </c>
-      <c r="AC51" s="3"/>
+      <c r="AC51" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>171860630</v>
       </c>
@@ -5647,9 +5783,12 @@
       <c r="AB52" s="2">
         <v>90</v>
       </c>
-      <c r="AC52" s="3"/>
+      <c r="AC52" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD52" s="3"/>
     </row>
-    <row r="53" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>171860633</v>
       </c>
@@ -5734,9 +5873,12 @@
       <c r="AB53" s="2">
         <v>90</v>
       </c>
-      <c r="AC53" s="3"/>
+      <c r="AC53" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD53" s="3"/>
     </row>
-    <row r="54" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>171860634</v>
       </c>
@@ -5821,9 +5963,12 @@
       <c r="AB54" s="2">
         <v>95</v>
       </c>
-      <c r="AC54" s="3"/>
+      <c r="AC54" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>171860636</v>
       </c>
@@ -5908,9 +6053,12 @@
       <c r="AB55" s="2">
         <v>95</v>
       </c>
-      <c r="AC55" s="3"/>
+      <c r="AC55" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD55" s="3"/>
     </row>
-    <row r="56" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>171860655</v>
       </c>
@@ -5995,9 +6143,12 @@
       <c r="AB56" s="2">
         <v>90</v>
       </c>
-      <c r="AC56" s="3"/>
+      <c r="AC56" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD56" s="3"/>
     </row>
-    <row r="57" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>171860656</v>
       </c>
@@ -6076,9 +6227,10 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
-      <c r="AC57" s="3"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="3"/>
     </row>
-    <row r="58" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>171860669</v>
       </c>
@@ -6163,9 +6315,12 @@
       <c r="AB58" s="2">
         <v>100</v>
       </c>
-      <c r="AC58" s="3"/>
+      <c r="AC58" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>171860681</v>
       </c>
@@ -6250,9 +6405,12 @@
       <c r="AB59" s="2">
         <v>85</v>
       </c>
-      <c r="AC59" s="3"/>
+      <c r="AC59" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>171860682</v>
       </c>
@@ -6337,9 +6495,12 @@
       <c r="AB60" s="2">
         <v>100</v>
       </c>
-      <c r="AC60" s="3"/>
+      <c r="AC60" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>171860683</v>
       </c>
@@ -6424,9 +6585,12 @@
       <c r="AB61" s="2">
         <v>95</v>
       </c>
-      <c r="AC61" s="3"/>
+      <c r="AC61" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>171860684</v>
       </c>
@@ -6511,9 +6675,10 @@
       <c r="AB62" s="2">
         <v>95</v>
       </c>
-      <c r="AC62" s="3"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>171860686</v>
       </c>
@@ -6598,9 +6763,12 @@
       <c r="AB63" s="2">
         <v>100</v>
       </c>
-      <c r="AC63" s="3"/>
+      <c r="AC63" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD63" s="3"/>
     </row>
-    <row r="64" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>171870020</v>
       </c>
@@ -6683,7 +6851,8 @@
         <v>100</v>
       </c>
       <c r="AB64" s="2"/>
-      <c r="AC64" s="3"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -960,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +983,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1358,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1372,107 +1375,113 @@
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="13" width="6.125" customWidth="1"/>
     <col min="14" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="29" width="6.875" customWidth="1"/>
+    <col min="23" max="31" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:32" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
       <c r="AC1" s="11"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
     </row>
-    <row r="2" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+    <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
       <c r="AC2" s="11"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
     </row>
-    <row r="3" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:32" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1560,11 +1569,17 @@
       <c r="AC4" s="1">
         <v>27</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>141150048</v>
       </c>
@@ -1602,9 +1617,11 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="3"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>151130087</v>
       </c>
@@ -1692,9 +1709,15 @@
       <c r="AC6" s="2">
         <v>85</v>
       </c>
-      <c r="AD6" s="3"/>
+      <c r="AD6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>161015015</v>
       </c>
@@ -1780,9 +1803,15 @@
         <v>85</v>
       </c>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="3"/>
+      <c r="AD7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>161180120</v>
       </c>
@@ -1860,9 +1889,11 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>171098518</v>
       </c>
@@ -1950,9 +1981,15 @@
       <c r="AC9" s="2">
         <v>90</v>
       </c>
-      <c r="AD9" s="3"/>
+      <c r="AD9" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>171830607</v>
       </c>
@@ -2040,9 +2077,15 @@
       <c r="AC10" s="2">
         <v>95</v>
       </c>
-      <c r="AD10" s="3"/>
+      <c r="AD10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>171850034</v>
       </c>
@@ -2130,9 +2173,15 @@
       <c r="AC11" s="2">
         <v>95</v>
       </c>
-      <c r="AD11" s="3"/>
+      <c r="AD11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>171860002</v>
       </c>
@@ -2220,9 +2269,15 @@
       <c r="AC12" s="2">
         <v>95</v>
       </c>
-      <c r="AD12" s="3"/>
+      <c r="AD12" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>171860029</v>
       </c>
@@ -2310,9 +2365,15 @@
       <c r="AC13" s="2">
         <v>90</v>
       </c>
-      <c r="AD13" s="3"/>
+      <c r="AD13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>171860030</v>
       </c>
@@ -2400,9 +2461,15 @@
       <c r="AC14" s="2">
         <v>100</v>
       </c>
-      <c r="AD14" s="3"/>
+      <c r="AD14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>171860031</v>
       </c>
@@ -2490,9 +2557,15 @@
       <c r="AC15" s="2">
         <v>95</v>
       </c>
-      <c r="AD15" s="3"/>
+      <c r="AD15" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>171860514</v>
       </c>
@@ -2580,9 +2653,15 @@
       <c r="AC16" s="2">
         <v>100</v>
       </c>
-      <c r="AD16" s="3"/>
+      <c r="AD16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>171860515</v>
       </c>
@@ -2660,9 +2739,11 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="3"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>171860516</v>
       </c>
@@ -2750,9 +2831,15 @@
       <c r="AC18" s="2">
         <v>100</v>
       </c>
-      <c r="AD18" s="3"/>
+      <c r="AD18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>171860519</v>
       </c>
@@ -2840,11 +2927,17 @@
       <c r="AC19" s="2">
         <v>85</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AD19" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF19" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>171860521</v>
       </c>
@@ -2932,9 +3025,15 @@
       <c r="AC20" s="2">
         <v>95</v>
       </c>
-      <c r="AD20" s="3"/>
+      <c r="AD20" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>171860522</v>
       </c>
@@ -3022,9 +3121,15 @@
       <c r="AC21" s="2">
         <v>80</v>
       </c>
-      <c r="AD21" s="3"/>
+      <c r="AD21" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>171860523</v>
       </c>
@@ -3112,9 +3217,15 @@
       <c r="AC22" s="2">
         <v>95</v>
       </c>
-      <c r="AD22" s="3"/>
+      <c r="AD22" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171860524</v>
       </c>
@@ -3202,9 +3313,15 @@
       <c r="AC23" s="2">
         <v>95</v>
       </c>
-      <c r="AD23" s="3"/>
+      <c r="AD23" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>171860526</v>
       </c>
@@ -3292,12 +3409,18 @@
       <c r="AC24" s="2">
         <v>90</v>
       </c>
-      <c r="AD24" s="3"/>
-      <c r="AH24" t="s">
+      <c r="AD24" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF24" s="3"/>
+      <c r="AJ24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>171860528</v>
       </c>
@@ -3382,10 +3505,18 @@
       <c r="AB25" s="2">
         <v>85</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="3"/>
+      <c r="AC25" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>171860530</v>
       </c>
@@ -3470,10 +3601,18 @@
       <c r="AB26" s="2">
         <v>90</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="3"/>
+      <c r="AC26" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>171860541</v>
       </c>
@@ -3561,9 +3700,15 @@
       <c r="AC27" s="2">
         <v>95</v>
       </c>
-      <c r="AD27" s="3"/>
+      <c r="AD27" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>171860542</v>
       </c>
@@ -3651,9 +3796,15 @@
       <c r="AC28" s="2">
         <v>95</v>
       </c>
-      <c r="AD28" s="3"/>
+      <c r="AD28" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>171860545</v>
       </c>
@@ -3741,9 +3892,15 @@
       <c r="AC29" s="2">
         <v>95</v>
       </c>
-      <c r="AD29" s="3"/>
+      <c r="AD29" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>171860546</v>
       </c>
@@ -3831,9 +3988,15 @@
       <c r="AC30" s="2">
         <v>95</v>
       </c>
-      <c r="AD30" s="3"/>
+      <c r="AD30" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>171860547</v>
       </c>
@@ -3921,9 +4084,15 @@
       <c r="AC31" s="2">
         <v>100</v>
       </c>
-      <c r="AD31" s="3"/>
+      <c r="AD31" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF31" s="3"/>
     </row>
-    <row r="32" spans="1:34" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>171860557</v>
       </c>
@@ -4011,9 +4180,15 @@
       <c r="AC32" s="2">
         <v>95</v>
       </c>
-      <c r="AD32" s="3"/>
+      <c r="AD32" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>171860560</v>
       </c>
@@ -4093,9 +4268,11 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="3"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>171860562</v>
       </c>
@@ -4183,9 +4360,15 @@
       <c r="AC34" s="2">
         <v>85</v>
       </c>
-      <c r="AD34" s="3"/>
+      <c r="AD34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>171860563</v>
       </c>
@@ -4273,9 +4456,15 @@
       <c r="AC35" s="2">
         <v>95</v>
       </c>
-      <c r="AD35" s="3"/>
+      <c r="AD35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>171860574</v>
       </c>
@@ -4363,9 +4552,15 @@
       <c r="AC36" s="2">
         <v>95</v>
       </c>
-      <c r="AD36" s="3"/>
+      <c r="AD36" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>171860578</v>
       </c>
@@ -4453,9 +4648,15 @@
       <c r="AC37" s="2">
         <v>95</v>
       </c>
-      <c r="AD37" s="3"/>
+      <c r="AD37" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>171860579</v>
       </c>
@@ -4543,9 +4744,15 @@
       <c r="AC38" s="2">
         <v>95</v>
       </c>
-      <c r="AD38" s="3"/>
+      <c r="AD38" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>171860583</v>
       </c>
@@ -4633,9 +4840,15 @@
       <c r="AC39" s="2">
         <v>95</v>
       </c>
-      <c r="AD39" s="3"/>
+      <c r="AD39" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>171860589</v>
       </c>
@@ -4715,9 +4928,11 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
-      <c r="AD40" s="3"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>171860598</v>
       </c>
@@ -4805,9 +5020,15 @@
       <c r="AC41" s="2">
         <v>95</v>
       </c>
-      <c r="AD41" s="3"/>
+      <c r="AD41" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>171860606</v>
       </c>
@@ -4893,9 +5114,15 @@
         <v>90</v>
       </c>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="3"/>
+      <c r="AD42" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>171860608</v>
       </c>
@@ -4973,9 +5200,11 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="3"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>171860610</v>
       </c>
@@ -5063,9 +5292,15 @@
       <c r="AC44" s="2">
         <v>95</v>
       </c>
-      <c r="AD44" s="3"/>
+      <c r="AD44" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>171860612</v>
       </c>
@@ -5153,9 +5388,15 @@
       <c r="AC45" s="2">
         <v>95</v>
       </c>
-      <c r="AD45" s="3"/>
+      <c r="AD45" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>171860613</v>
       </c>
@@ -5243,9 +5484,15 @@
       <c r="AC46" s="2">
         <v>95</v>
       </c>
-      <c r="AD46" s="3"/>
+      <c r="AD46" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>171860616</v>
       </c>
@@ -5333,9 +5580,15 @@
       <c r="AC47" s="2">
         <v>95</v>
       </c>
-      <c r="AD47" s="3"/>
+      <c r="AD47" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="1:30" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>171860617</v>
       </c>
@@ -5423,9 +5676,15 @@
       <c r="AC48" s="2">
         <v>90</v>
       </c>
-      <c r="AD48" s="3"/>
+      <c r="AD48" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>171860618</v>
       </c>
@@ -5513,9 +5772,15 @@
       <c r="AC49" s="2">
         <v>95</v>
       </c>
-      <c r="AD49" s="3"/>
+      <c r="AD49" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>171860621</v>
       </c>
@@ -5603,12 +5868,18 @@
       <c r="AC50" s="2">
         <v>95</v>
       </c>
-      <c r="AD50" s="3"/>
-      <c r="AE50" t="s">
+      <c r="AD50" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF50" s="3"/>
+      <c r="AG50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>171860622</v>
       </c>
@@ -5696,9 +5967,15 @@
       <c r="AC51" s="2">
         <v>95</v>
       </c>
-      <c r="AD51" s="3"/>
+      <c r="AD51" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>171860630</v>
       </c>
@@ -5786,9 +6063,15 @@
       <c r="AC52" s="2">
         <v>95</v>
       </c>
-      <c r="AD52" s="3"/>
+      <c r="AD52" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>171860633</v>
       </c>
@@ -5876,9 +6159,15 @@
       <c r="AC53" s="2">
         <v>95</v>
       </c>
-      <c r="AD53" s="3"/>
+      <c r="AD53" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>171860634</v>
       </c>
@@ -5966,9 +6255,15 @@
       <c r="AC54" s="2">
         <v>90</v>
       </c>
-      <c r="AD54" s="3"/>
+      <c r="AD54" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>171860636</v>
       </c>
@@ -6056,9 +6351,15 @@
       <c r="AC55" s="2">
         <v>100</v>
       </c>
-      <c r="AD55" s="3"/>
+      <c r="AD55" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>171860655</v>
       </c>
@@ -6146,9 +6447,15 @@
       <c r="AC56" s="2">
         <v>95</v>
       </c>
-      <c r="AD56" s="3"/>
+      <c r="AD56" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>171860656</v>
       </c>
@@ -6228,9 +6535,11 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="3"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>171860669</v>
       </c>
@@ -6318,9 +6627,15 @@
       <c r="AC58" s="2">
         <v>95</v>
       </c>
-      <c r="AD58" s="3"/>
+      <c r="AD58" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>171860681</v>
       </c>
@@ -6408,9 +6723,15 @@
       <c r="AC59" s="2">
         <v>95</v>
       </c>
-      <c r="AD59" s="3"/>
+      <c r="AD59" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF59" s="3"/>
     </row>
-    <row r="60" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>171860682</v>
       </c>
@@ -6498,9 +6819,15 @@
       <c r="AC60" s="2">
         <v>95</v>
       </c>
-      <c r="AD60" s="3"/>
+      <c r="AD60" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF60" s="3"/>
     </row>
-    <row r="61" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>171860683</v>
       </c>
@@ -6588,9 +6915,15 @@
       <c r="AC61" s="2">
         <v>95</v>
       </c>
-      <c r="AD61" s="3"/>
+      <c r="AD61" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF61" s="3"/>
     </row>
-    <row r="62" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>171860684</v>
       </c>
@@ -6676,9 +7009,15 @@
         <v>95</v>
       </c>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="3"/>
+      <c r="AD62" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF62" s="3"/>
     </row>
-    <row r="63" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>171860686</v>
       </c>
@@ -6766,9 +7105,15 @@
       <c r="AC63" s="2">
         <v>95</v>
       </c>
-      <c r="AD63" s="3"/>
+      <c r="AD63" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:31" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>171870020</v>
       </c>
@@ -6851,8 +7196,12 @@
         <v>100</v>
       </c>
       <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="3"/>
+      <c r="AC64" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI31" sqref="AI31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5113,7 +5113,9 @@
       <c r="AB42" s="2">
         <v>90</v>
       </c>
-      <c r="AC42" s="2"/>
+      <c r="AC42" s="2">
+        <v>90</v>
+      </c>
       <c r="AD42" s="2">
         <v>90</v>
       </c>
@@ -6531,9 +6533,15 @@
       <c r="Y57" s="2">
         <v>100</v>
       </c>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
+      <c r="Z57" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>90</v>
+      </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>

--- a/课后作业成绩2018/离散数学作业成绩.xlsx
+++ b/课后作业成绩2018/离散数学作业成绩.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="studentList (1)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>南京大学  《离散数学》  课程学生名单</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t> 谢宇轩</t>
-  </si>
-  <si>
-    <t> 刘力源</t>
   </si>
   <si>
     <t> 刘添翼</t>
@@ -299,6 +296,14 @@
   </si>
   <si>
     <t>·</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>均分</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t> 刘力源</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +988,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1361,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ64"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI45" sqref="AI45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1375,103 +1383,111 @@
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="13" width="6.125" customWidth="1"/>
     <col min="14" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="31" width="6.875" customWidth="1"/>
+    <col min="23" max="35" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="13"/>
     </row>
-    <row r="2" spans="1:32" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+    <row r="2" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13"/>
     </row>
-    <row r="3" spans="1:32" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
@@ -1480,8 +1496,12 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1495,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -1513,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>10</v>
@@ -1540,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U4" s="1">
         <v>17</v>
@@ -1567,19 +1587,31 @@
         <v>24</v>
       </c>
       <c r="AC4" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="1">
         <v>27</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AG4" s="1">
         <v>28</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AH4" s="1">
         <v>29</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>141150048</v>
       </c>
@@ -1592,36 +1624,103 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="3"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <f>AVERAGE(E5:AH5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>151130087</v>
       </c>
@@ -1707,17 +1806,30 @@
         <v>90</v>
       </c>
       <c r="AC6" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AD6" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE6" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF6" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI6" s="2">
+        <f t="shared" ref="AI6:AI43" si="0">AVERAGE(E6:AH6)</f>
+        <v>92.5</v>
+      </c>
+      <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>161015015</v>
       </c>
@@ -1802,16 +1914,31 @@
       <c r="AB7" s="2">
         <v>85</v>
       </c>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="2">
+        <v>90</v>
+      </c>
       <c r="AD7" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE7" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF7" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="0"/>
+        <v>89.833333333333329</v>
+      </c>
+      <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>161180120</v>
       </c>
@@ -1884,16 +2011,43 @@
       <c r="X8" s="6">
         <v>0</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="3"/>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" si="0"/>
+        <v>44.833333333333336</v>
+      </c>
+      <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>171098518</v>
       </c>
@@ -1982,14 +2136,27 @@
         <v>90</v>
       </c>
       <c r="AD9" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG9" s="2">
         <v>80</v>
       </c>
-      <c r="AE9" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF9" s="3"/>
+      <c r="AH9" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="0"/>
+        <v>87.166666666666671</v>
+      </c>
+      <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>171830607</v>
       </c>
@@ -2078,14 +2245,27 @@
         <v>95</v>
       </c>
       <c r="AD10" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AE10" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF10" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>171850034</v>
       </c>
@@ -2177,11 +2357,24 @@
         <v>100</v>
       </c>
       <c r="AE11" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF11" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+      <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>171860002</v>
       </c>
@@ -2267,17 +2460,30 @@
         <v>95</v>
       </c>
       <c r="AC12" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AD12" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE12" s="2">
         <v>90</v>
       </c>
-      <c r="AF12" s="3"/>
+      <c r="AF12" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI12" s="2">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+      <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>171860029</v>
       </c>
@@ -2363,17 +2569,30 @@
         <v>100</v>
       </c>
       <c r="AC13" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD13" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE13" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF13" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="0"/>
+        <v>97.333333333333329</v>
+      </c>
+      <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>171860030</v>
       </c>
@@ -2459,17 +2678,30 @@
         <v>95</v>
       </c>
       <c r="AC14" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AD14" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE14" s="2">
         <v>95</v>
       </c>
-      <c r="AF14" s="3"/>
+      <c r="AF14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI14" s="2">
+        <f t="shared" si="0"/>
+        <v>95.666666666666671</v>
+      </c>
+      <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>171860031</v>
       </c>
@@ -2558,14 +2790,27 @@
         <v>95</v>
       </c>
       <c r="AD15" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AE15" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF15" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>171860514</v>
       </c>
@@ -2654,14 +2899,27 @@
         <v>100</v>
       </c>
       <c r="AD16" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE16" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF16" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI16" s="2">
+        <f t="shared" si="0"/>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>171860515</v>
       </c>
@@ -2734,16 +2992,43 @@
       <c r="X17" s="2">
         <v>90</v>
       </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="3"/>
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="0"/>
+        <v>67.666666666666671</v>
+      </c>
+      <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>171860516</v>
       </c>
@@ -2835,11 +3120,24 @@
         <v>100</v>
       </c>
       <c r="AE18" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF18" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI18" s="2">
+        <f>AVERAGE(E18:AH18)</f>
+        <v>97.166666666666671</v>
+      </c>
+      <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>171860519</v>
       </c>
@@ -2925,7 +3223,7 @@
         <v>90</v>
       </c>
       <c r="AC19" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AD19" s="2">
         <v>95</v>
@@ -2933,11 +3231,24 @@
       <c r="AE19" s="2">
         <v>85</v>
       </c>
-      <c r="AF19" s="3" t="s">
-        <v>90</v>
+      <c r="AF19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI19" s="2">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>171860521</v>
       </c>
@@ -3023,17 +3334,30 @@
         <v>95</v>
       </c>
       <c r="AC20" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AE20" s="2">
         <v>95</v>
       </c>
-      <c r="AF20" s="3"/>
+      <c r="AF20" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>171860522</v>
       </c>
@@ -3119,17 +3443,30 @@
         <v>75</v>
       </c>
       <c r="AC21" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF21" s="2">
         <v>80</v>
       </c>
-      <c r="AD21" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF21" s="3"/>
+      <c r="AG21" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="0"/>
+        <v>89.5</v>
+      </c>
+      <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>171860523</v>
       </c>
@@ -3215,17 +3552,30 @@
         <v>85</v>
       </c>
       <c r="AC22" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD22" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AE22" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF22" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="0"/>
+        <v>94.333333333333329</v>
+      </c>
+      <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171860524</v>
       </c>
@@ -3311,17 +3661,30 @@
         <v>100</v>
       </c>
       <c r="AC23" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE23" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF23" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="0"/>
+        <v>93.5</v>
+      </c>
+      <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>171860526</v>
       </c>
@@ -3386,46 +3749,59 @@
         <v>95</v>
       </c>
       <c r="V24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W24" s="2">
+        <v>90</v>
+      </c>
+      <c r="X24" s="2">
+        <v>95</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>95</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="0"/>
+        <v>95.172413793103445</v>
+      </c>
+      <c r="AJ24" s="3"/>
+      <c r="AN24" t="s">
         <v>87</v>
       </c>
-      <c r="W24" s="2">
-        <v>90</v>
-      </c>
-      <c r="X24" s="2">
-        <v>95</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>95</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>90</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF24" s="3"/>
-      <c r="AJ24" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="25" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>171860528</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -3506,17 +3882,30 @@
         <v>85</v>
       </c>
       <c r="AC25" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD25" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AE25" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF25" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="0"/>
+        <v>94.166666666666671</v>
+      </c>
+      <c r="AJ25" s="3"/>
     </row>
-    <row r="26" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>171860530</v>
       </c>
@@ -3608,11 +3997,24 @@
         <v>100</v>
       </c>
       <c r="AE26" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF26" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="0"/>
+        <v>96.333333333333329</v>
+      </c>
+      <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>171860541</v>
       </c>
@@ -3698,17 +4100,30 @@
         <v>90</v>
       </c>
       <c r="AC27" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD27" s="2">
         <v>90</v>
       </c>
       <c r="AE27" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH27" s="2">
         <v>80</v>
       </c>
-      <c r="AF27" s="3"/>
+      <c r="AI27" s="2">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>171860542</v>
       </c>
@@ -3794,7 +4209,7 @@
         <v>95</v>
       </c>
       <c r="AC28" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD28" s="2">
         <v>95</v>
@@ -3802,9 +4217,22 @@
       <c r="AE28" s="2">
         <v>85</v>
       </c>
-      <c r="AF28" s="3"/>
+      <c r="AF28" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="0"/>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="AJ28" s="3"/>
     </row>
-    <row r="29" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>171860545</v>
       </c>
@@ -3890,17 +4318,30 @@
         <v>95</v>
       </c>
       <c r="AC29" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD29" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE29" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI29" s="2">
+        <f t="shared" si="0"/>
+        <v>96.333333333333329</v>
+      </c>
+      <c r="AJ29" s="3"/>
     </row>
-    <row r="30" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>171860546</v>
       </c>
@@ -3986,17 +4427,30 @@
         <v>85</v>
       </c>
       <c r="AC30" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD30" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE30" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF30" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="AJ30" s="3"/>
     </row>
-    <row r="31" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>171860547</v>
       </c>
@@ -4088,11 +4542,24 @@
         <v>100</v>
       </c>
       <c r="AE31" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF31" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" s="2">
+        <f>AVERAGE(E31:AH31)</f>
+        <v>95.833333333333329</v>
+      </c>
+      <c r="AJ31" s="3"/>
     </row>
-    <row r="32" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>171860557</v>
       </c>
@@ -4178,22 +4645,35 @@
         <v>80</v>
       </c>
       <c r="AC32" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD32" s="2">
         <v>90</v>
       </c>
       <c r="AE32" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF32" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="0"/>
+        <v>89.5</v>
+      </c>
+      <c r="AJ32" s="3"/>
     </row>
-    <row r="33" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>171860560</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>28</v>
@@ -4264,20 +4744,45 @@
       <c r="Y33" s="2">
         <v>90</v>
       </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="3"/>
+      <c r="Z33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="2">
+        <f t="shared" si="0"/>
+        <v>68.833333333333329</v>
+      </c>
+      <c r="AJ33" s="3"/>
     </row>
-    <row r="34" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>171860562</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -4358,22 +4863,35 @@
         <v>85</v>
       </c>
       <c r="AC34" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AD34" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AE34" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF34" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI34" s="2">
+        <f t="shared" si="0"/>
+        <v>91.833333333333329</v>
+      </c>
+      <c r="AJ34" s="3"/>
     </row>
-    <row r="35" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>171860563</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
@@ -4460,16 +4978,29 @@
         <v>95</v>
       </c>
       <c r="AE35" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH35" s="2">
         <v>80</v>
       </c>
-      <c r="AF35" s="3"/>
+      <c r="AI35" s="2">
+        <f t="shared" si="0"/>
+        <v>94.166666666666671</v>
+      </c>
+      <c r="AJ35" s="3"/>
     </row>
-    <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>171860574</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>28</v>
@@ -4550,22 +5081,35 @@
         <v>85</v>
       </c>
       <c r="AC36" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD36" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE36" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF36" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI36" s="2">
+        <f t="shared" si="0"/>
+        <v>94.166666666666671</v>
+      </c>
+      <c r="AJ36" s="3"/>
     </row>
-    <row r="37" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>171860578</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
@@ -4646,22 +5190,35 @@
         <v>100</v>
       </c>
       <c r="AC37" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD37" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE37" s="2">
         <v>100</v>
       </c>
-      <c r="AF37" s="3"/>
+      <c r="AF37" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI37" s="2">
+        <f t="shared" si="0"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="AJ37" s="3"/>
     </row>
-    <row r="38" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>171860579</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -4742,22 +5299,35 @@
         <v>95</v>
       </c>
       <c r="AC38" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD38" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE38" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF38" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI38" s="2">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>171860583</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
@@ -4841,19 +5411,32 @@
         <v>95</v>
       </c>
       <c r="AD39" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF39" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>95</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI39" s="2">
+        <f t="shared" si="0"/>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="AJ39" s="3"/>
     </row>
-    <row r="40" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>171860589</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
@@ -4924,20 +5507,45 @@
       <c r="Y40" s="2">
         <v>95</v>
       </c>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="3"/>
+      <c r="Z40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2">
+        <f t="shared" si="0"/>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>171860598</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -5018,22 +5626,35 @@
         <v>95</v>
       </c>
       <c r="AC41" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD41" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE41" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF41" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI41" s="2">
+        <f t="shared" si="0"/>
+        <v>92.166666666666671</v>
+      </c>
+      <c r="AJ41" s="3"/>
     </row>
-    <row r="42" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>171860606</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
@@ -5110,26 +5731,39 @@
       <c r="AA42" s="2">
         <v>95</v>
       </c>
-      <c r="AB42" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>90</v>
-      </c>
-      <c r="AD42" s="2">
+      <c r="AB42" s="7">
+        <v>90</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>90</v>
+      </c>
+      <c r="AD42" s="7">
         <v>90</v>
       </c>
       <c r="AE42" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF42" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI42" s="2">
+        <f t="shared" si="0"/>
+        <v>89.833333333333329</v>
+      </c>
+      <c r="AJ42" s="3"/>
     </row>
-    <row r="43" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>171860608</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>28</v>
@@ -5197,21 +5831,48 @@
       <c r="X43" s="6">
         <v>0</v>
       </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="3"/>
+      <c r="Y43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="2">
+        <f t="shared" si="0"/>
+        <v>43.166666666666664</v>
+      </c>
+      <c r="AJ43" s="3"/>
     </row>
-    <row r="44" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>171860610</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>28</v>
@@ -5292,7 +5953,7 @@
         <v>95</v>
       </c>
       <c r="AC44" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD44" s="2">
         <v>95</v>
@@ -5300,14 +5961,27 @@
       <c r="AE44" s="2">
         <v>100</v>
       </c>
-      <c r="AF44" s="3"/>
+      <c r="AF44" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI44" s="2">
+        <f>AVERAGE(E44:AH44)</f>
+        <v>96.5</v>
+      </c>
+      <c r="AJ44" s="3"/>
     </row>
-    <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>171860612</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
@@ -5391,19 +6065,32 @@
         <v>95</v>
       </c>
       <c r="AD45" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE45" s="2">
         <v>100</v>
       </c>
-      <c r="AF45" s="3"/>
+      <c r="AF45" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI45" s="2">
+        <f>AVERAGE(E45:AH45)</f>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>171860613</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
@@ -5484,22 +6171,35 @@
         <v>100</v>
       </c>
       <c r="AC46" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD46" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AE46" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF46" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH46" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI46" s="2">
+        <f t="shared" ref="AI46:AI57" si="1">AVERAGE(E46:AH46)</f>
+        <v>93.833333333333329</v>
+      </c>
+      <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>171860616</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
@@ -5588,14 +6288,27 @@
       <c r="AE47" s="2">
         <v>90</v>
       </c>
-      <c r="AF47" s="3"/>
+      <c r="AF47" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI47" s="2">
+        <f t="shared" si="1"/>
+        <v>93.833333333333329</v>
+      </c>
+      <c r="AJ47" s="3"/>
     </row>
-    <row r="48" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>171860617</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
@@ -5676,22 +6389,35 @@
         <v>85</v>
       </c>
       <c r="AC48" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD48" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE48" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF48" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI48" s="2">
+        <f t="shared" si="1"/>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="AJ48" s="3"/>
     </row>
-    <row r="49" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>171860618</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>28</v>
@@ -5772,22 +6498,35 @@
         <v>90</v>
       </c>
       <c r="AC49" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD49" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE49" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF49" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI49" s="2">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+      <c r="AJ49" s="3"/>
     </row>
-    <row r="50" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>171860621</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>28</v>
@@ -5871,22 +6610,35 @@
         <v>95</v>
       </c>
       <c r="AD50" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE50" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF50" s="3"/>
-      <c r="AG50" t="s">
-        <v>89</v>
+        <v>100</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI50" s="2">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>171860622</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>28</v>
@@ -5967,22 +6719,35 @@
         <v>100</v>
       </c>
       <c r="AC51" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD51" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE51" s="2">
         <v>85</v>
       </c>
-      <c r="AF51" s="3"/>
+      <c r="AF51" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI51" s="2">
+        <f t="shared" si="1"/>
+        <v>92.166666666666671</v>
+      </c>
+      <c r="AJ51" s="3"/>
     </row>
-    <row r="52" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>171860630</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
@@ -6063,22 +6828,35 @@
         <v>90</v>
       </c>
       <c r="AC52" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD52" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE52" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF52" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI52" s="2">
+        <f t="shared" si="1"/>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="AJ52" s="3"/>
     </row>
-    <row r="53" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>171860633</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
@@ -6165,16 +6943,29 @@
         <v>100</v>
       </c>
       <c r="AE53" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF53" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI53" s="2">
+        <f t="shared" si="1"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="AJ53" s="3"/>
     </row>
-    <row r="54" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>171860634</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
@@ -6255,22 +7046,35 @@
         <v>95</v>
       </c>
       <c r="AC54" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD54" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AE54" s="2">
         <v>95</v>
       </c>
-      <c r="AF54" s="3"/>
+      <c r="AF54" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI54" s="2">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+      <c r="AJ54" s="3"/>
     </row>
-    <row r="55" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>171860636</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
@@ -6359,14 +7163,27 @@
       <c r="AE55" s="2">
         <v>95</v>
       </c>
-      <c r="AF55" s="3"/>
+      <c r="AF55" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI55" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
+      <c r="AJ55" s="3"/>
     </row>
-    <row r="56" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>171860655</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
@@ -6446,23 +7263,36 @@
       <c r="AB56" s="2">
         <v>90</v>
       </c>
-      <c r="AC56" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD56" s="2">
+      <c r="AC56" s="7">
+        <v>95</v>
+      </c>
+      <c r="AD56" s="7">
         <v>95</v>
       </c>
       <c r="AE56" s="2">
         <v>95</v>
       </c>
-      <c r="AF56" s="3"/>
+      <c r="AF56" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI56" s="2">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="AJ56" s="3"/>
     </row>
-    <row r="57" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>171860656</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
@@ -6542,17 +7372,36 @@
       <c r="AB57" s="2">
         <v>90</v>
       </c>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="3"/>
+      <c r="AC57" s="2">
+        <v>95</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="AJ57" s="3"/>
     </row>
-    <row r="58" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>171860669</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>28</v>
@@ -6636,19 +7485,32 @@
         <v>95</v>
       </c>
       <c r="AD58" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE58" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF58" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG58" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH58" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI58" s="2">
+        <f>AVERAGE(E58:AH58)</f>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="AJ58" s="3"/>
     </row>
-    <row r="59" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>171860681</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>28</v>
@@ -6732,19 +7594,32 @@
         <v>95</v>
       </c>
       <c r="AD59" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AE59" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF59" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG59" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI59" s="2">
+        <f>AVERAGE(E59:AH59)</f>
+        <v>94.333333333333329</v>
+      </c>
+      <c r="AJ59" s="3"/>
     </row>
-    <row r="60" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>171860682</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>28</v>
@@ -6825,7 +7700,7 @@
         <v>100</v>
       </c>
       <c r="AC60" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD60" s="2">
         <v>100</v>
@@ -6833,14 +7708,27 @@
       <c r="AE60" s="2">
         <v>100</v>
       </c>
-      <c r="AF60" s="3"/>
+      <c r="AF60" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG60" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH60" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI60" s="2">
+        <f t="shared" ref="AI60:AI64" si="2">AVERAGE(E60:AH60)</f>
+        <v>97.5</v>
+      </c>
+      <c r="AJ60" s="3"/>
     </row>
-    <row r="61" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>171860683</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>28</v>
@@ -6921,22 +7809,35 @@
         <v>95</v>
       </c>
       <c r="AC61" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AD61" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE61" s="2">
         <v>95</v>
       </c>
-      <c r="AF61" s="3"/>
+      <c r="AF61" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG61" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI61" s="2">
+        <f t="shared" si="2"/>
+        <v>94.833333333333329</v>
+      </c>
+      <c r="AJ61" s="3"/>
     </row>
-    <row r="62" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>171860684</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
@@ -7016,21 +7917,36 @@
       <c r="AB62" s="2">
         <v>95</v>
       </c>
-      <c r="AC62" s="2"/>
+      <c r="AC62" s="2">
+        <v>90</v>
+      </c>
       <c r="AD62" s="2">
         <v>90</v>
       </c>
       <c r="AE62" s="2">
         <v>95</v>
       </c>
-      <c r="AF62" s="3"/>
+      <c r="AF62" s="7">
+        <v>95</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI62" s="2">
+        <f t="shared" si="2"/>
+        <v>93.833333333333329</v>
+      </c>
+      <c r="AJ62" s="3"/>
     </row>
-    <row r="63" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>171860686</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
@@ -7111,7 +8027,7 @@
         <v>100</v>
       </c>
       <c r="AC63" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD63" s="2">
         <v>100</v>
@@ -7119,20 +8035,33 @@
       <c r="AE63" s="2">
         <v>95</v>
       </c>
-      <c r="AF63" s="3"/>
+      <c r="AF63" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI63" s="2">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="AJ63" s="3"/>
     </row>
-    <row r="64" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>171870020</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2">
         <v>95</v>
@@ -7203,13 +8132,32 @@
       <c r="AA64" s="2">
         <v>100</v>
       </c>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2">
-        <v>90</v>
-      </c>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
-      <c r="AF64" s="3"/>
+      <c r="AB64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="2">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="AJ64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
